--- a/data/trans_orig/P21C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>66544</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60784</v>
+        <v>60611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69484</v>
+        <v>69490</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9325821694131428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8518509484209932</v>
+        <v>0.8494257717343447</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9737737769357598</v>
+        <v>0.9738589596485432</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -765,19 +765,19 @@
         <v>78675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70450</v>
+        <v>71397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84429</v>
+        <v>83802</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8630756328208553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7728422382654589</v>
+        <v>0.783232330264062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9261916762848352</v>
+        <v>0.9193104771477496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>145</v>
@@ -786,19 +786,19 @@
         <v>145220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136722</v>
+        <v>135625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>152114</v>
+        <v>151529</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8935942869179926</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.841306158115204</v>
+        <v>0.8345530271665592</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9360176457915119</v>
+        <v>0.9324198796552529</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10571</v>
+        <v>10744</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0674178305868573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02622622306424009</v>
+        <v>0.0261410403514568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1481490515790075</v>
+        <v>0.1505742282656553</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>12482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6728</v>
+        <v>7355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20707</v>
+        <v>19760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1369243671791447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07380832371516474</v>
+        <v>0.08068952285225045</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2271577617345406</v>
+        <v>0.216767669735938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -857,19 +857,19 @@
         <v>17292</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10398</v>
+        <v>10983</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25790</v>
+        <v>26887</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1064057130820074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06398235420848813</v>
+        <v>0.06758012034474654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.158693841884796</v>
+        <v>0.1654469728334407</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>111360</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101994</v>
+        <v>102003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118300</v>
+        <v>118241</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8748344730605447</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8012510854855734</v>
+        <v>0.8013278804433763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9293505697371636</v>
+        <v>0.928888244594594</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>145</v>
@@ -982,19 +982,19 @@
         <v>153887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>144064</v>
+        <v>143202</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161321</v>
+        <v>161151</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8993772700309526</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8419690322228545</v>
+        <v>0.8369302343099484</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9428260872242009</v>
+        <v>0.9418314181467525</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -1003,19 +1003,19 @@
         <v>265247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>251372</v>
+        <v>253426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275014</v>
+        <v>275062</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8889075926086762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.842406686388775</v>
+        <v>0.8492901844632057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9216365964770019</v>
+        <v>0.9218004826459736</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>15933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8993</v>
+        <v>9052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25299</v>
+        <v>25290</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1251655269394552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07064943026283628</v>
+        <v>0.07111175540540593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1987489145144266</v>
+        <v>0.1986721195566229</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1053,19 +1053,19 @@
         <v>17217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9783</v>
+        <v>9953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27040</v>
+        <v>27902</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1006227299690475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05717391277579921</v>
+        <v>0.05816858185324744</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1580309677771461</v>
+        <v>0.1630697656900517</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1074,19 +1074,19 @@
         <v>33150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23383</v>
+        <v>23335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47025</v>
+        <v>44971</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1110924073913237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07836340352299813</v>
+        <v>0.07819951735402644</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1575933136112251</v>
+        <v>0.1507098155367946</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>80748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73012</v>
+        <v>73349</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86023</v>
+        <v>85714</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8753975028761485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7915246888733923</v>
+        <v>0.7951816535563513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9325835078145374</v>
+        <v>0.9292336350443928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -1199,19 +1199,19 @@
         <v>104213</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95399</v>
+        <v>95816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110979</v>
+        <v>111103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8379783196464554</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7671091047533465</v>
+        <v>0.7704600897370558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.892390354357211</v>
+        <v>0.8933807839391306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>180</v>
@@ -1220,19 +1220,19 @@
         <v>184961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174002</v>
+        <v>173626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194871</v>
+        <v>195049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8539134202209264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.803319522512009</v>
+        <v>0.8015808163327528</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8996663953752867</v>
+        <v>0.9004862799385384</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>11494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6219</v>
+        <v>6528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19230</v>
+        <v>18893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1246024971238515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06741649218546267</v>
+        <v>0.07076636495560668</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2084753111266077</v>
+        <v>0.2048183464436486</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1270,19 +1270,19 @@
         <v>20149</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13383</v>
+        <v>13259</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28963</v>
+        <v>28546</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1620216803535445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1076096456427889</v>
+        <v>0.1066192160608694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2328908952466532</v>
+        <v>0.2295399102629439</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -1291,19 +1291,19 @@
         <v>31643</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21733</v>
+        <v>21555</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42602</v>
+        <v>42978</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1460865797790736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1003336046247133</v>
+        <v>0.09951372006146163</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.196680477487991</v>
+        <v>0.1984191836672473</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>80848</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72639</v>
+        <v>71440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86289</v>
+        <v>86260</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8539098604761913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7672094297245322</v>
+        <v>0.7545450048424799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9113720285646202</v>
+        <v>0.9110644021611782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -1416,19 +1416,19 @@
         <v>157622</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148761</v>
+        <v>148769</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164739</v>
+        <v>164495</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9065103849583914</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8555494207555133</v>
+        <v>0.8555919791286065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9474375622371428</v>
+        <v>0.9460379380298373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -1437,19 +1437,19 @@
         <v>238470</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226374</v>
+        <v>227346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>247748</v>
+        <v>248334</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.887966023208014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8429228803142097</v>
+        <v>0.8465438073237754</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9225119465032329</v>
+        <v>0.9246943414935753</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>13832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8391</v>
+        <v>8420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22041</v>
+        <v>23240</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1460901395238086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08862797143537988</v>
+        <v>0.08893559783882161</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2327905702754679</v>
+        <v>0.24545499515752</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1487,19 +1487,19 @@
         <v>16256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9139</v>
+        <v>9383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25117</v>
+        <v>25109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09348961504160859</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05256243776285714</v>
+        <v>0.05396206197016245</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1444505792444865</v>
+        <v>0.1444080208713935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -1508,19 +1508,19 @@
         <v>30088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20810</v>
+        <v>20224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42184</v>
+        <v>41212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.112033976791986</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07748805349676718</v>
+        <v>0.07530565850642469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1570771196857904</v>
+        <v>0.1534561926762246</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>339501</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>324715</v>
+        <v>324957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>351175</v>
+        <v>350941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8805179401995737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8421682343662917</v>
+        <v>0.8427960207553877</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9107955171546089</v>
+        <v>0.910187998699395</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>477</v>
@@ -1633,19 +1633,19 @@
         <v>494398</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>477931</v>
+        <v>478829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>508194</v>
+        <v>507889</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8820631750228606</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8526832268463296</v>
+        <v>0.8542854186138042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9066758689427471</v>
+        <v>0.9061326820267992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>811</v>
@@ -1654,19 +1654,19 @@
         <v>833899</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>812817</v>
+        <v>810953</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>852861</v>
+        <v>852394</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8814334167996908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8591493176540953</v>
+        <v>0.8571794680427558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.901475350011596</v>
+        <v>0.9009820523525092</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>46069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34395</v>
+        <v>34629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>60855</v>
+        <v>60613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1194820598004262</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08920448284539102</v>
+        <v>0.08981200130060493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1578317656337083</v>
+        <v>0.1572039792446123</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -1704,19 +1704,19 @@
         <v>66104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>52308</v>
+        <v>52613</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>82571</v>
+        <v>81673</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1179368249771394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09332413105725289</v>
+        <v>0.09386731797320079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1473167731536707</v>
+        <v>0.1457145813861958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -1725,19 +1725,19 @@
         <v>112173</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93211</v>
+        <v>93678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133255</v>
+        <v>135119</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1185665832003092</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09852464998840399</v>
+        <v>0.09901794764749074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1408506823459046</v>
+        <v>0.1428205319572441</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>65943</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56971</v>
+        <v>56745</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72592</v>
+        <v>72363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8064680597783367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6967392576948929</v>
+        <v>0.6939792978443198</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8877748861654113</v>
+        <v>0.8849772015632266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -2090,19 +2090,19 @@
         <v>112930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104711</v>
+        <v>104457</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119173</v>
+        <v>119217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8892295721476302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8245065936247757</v>
+        <v>0.8225125598683489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9383819472563367</v>
+        <v>0.9387342349655617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>166</v>
@@ -2111,19 +2111,19 @@
         <v>178874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>166245</v>
+        <v>167030</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>187959</v>
+        <v>188015</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8568141636501939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7963203687965726</v>
+        <v>0.8000833082338813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9003324645063067</v>
+        <v>0.900603509088604</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>15825</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9176</v>
+        <v>9405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24797</v>
+        <v>25023</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1935319402216633</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.112225113834589</v>
+        <v>0.1150227984367736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3032607423051076</v>
+        <v>0.3060207021556802</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -2161,19 +2161,19 @@
         <v>14068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7825</v>
+        <v>7781</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22287</v>
+        <v>22541</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1107704278523698</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06161805274366332</v>
+        <v>0.06126576503443803</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1754934063752246</v>
+        <v>0.177487440131651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -2182,19 +2182,19 @@
         <v>29892</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20807</v>
+        <v>20751</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42521</v>
+        <v>41736</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1431858363498061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09966753549369327</v>
+        <v>0.09939649091139595</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2036796312034274</v>
+        <v>0.1999166917661186</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>81944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72466</v>
+        <v>70760</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90213</v>
+        <v>89751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7698199912686455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6807809695730994</v>
+        <v>0.6647486972136746</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8474989206300735</v>
+        <v>0.843157174452684</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -2307,19 +2307,19 @@
         <v>128299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117036</v>
+        <v>115947</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138253</v>
+        <v>137836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7892845201731163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7199927328904904</v>
+        <v>0.7132990512677386</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8505235067708188</v>
+        <v>0.8479558094700909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>193</v>
@@ -2328,19 +2328,19 @@
         <v>210243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196183</v>
+        <v>193050</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>224457</v>
+        <v>222598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7815821081068747</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7293115306553065</v>
+        <v>0.7176674114692715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8344230400165895</v>
+        <v>0.8275119540437624</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>24502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16233</v>
+        <v>16695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33980</v>
+        <v>35686</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2301800087313544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1525010793699265</v>
+        <v>0.1568428255473159</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3192190304269005</v>
+        <v>0.335251302786325</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -2378,19 +2378,19 @@
         <v>34252</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24298</v>
+        <v>24715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45515</v>
+        <v>46604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2107154798268836</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1494764932291813</v>
+        <v>0.1520441905299091</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2800072671095097</v>
+        <v>0.2867009487322615</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -2399,19 +2399,19 @@
         <v>58754</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44540</v>
+        <v>46399</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72814</v>
+        <v>75947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2184178918931253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1655769599834107</v>
+        <v>0.1724880459562375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2706884693446935</v>
+        <v>0.2823325885307283</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>100334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91707</v>
+        <v>91565</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106552</v>
+        <v>106579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8911249311224979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8145025164639116</v>
+        <v>0.8132345994497934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9463431092191805</v>
+        <v>0.9465885701098125</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -2524,19 +2524,19 @@
         <v>136835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>126192</v>
+        <v>126196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145521</v>
+        <v>145606</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8476262715572953</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7817013201895276</v>
+        <v>0.7817223111351351</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9014334082709878</v>
+        <v>0.9019568168137794</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -2545,19 +2545,19 @@
         <v>237170</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>224736</v>
+        <v>223392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>247794</v>
+        <v>247090</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8654991742610436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.820121823797606</v>
+        <v>0.8152195990634191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9042684537879787</v>
+        <v>0.9016999400779813</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>12259</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6041</v>
+        <v>6014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20886</v>
+        <v>21028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1088750688775021</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05365689078081938</v>
+        <v>0.05341142989018766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1854974835360883</v>
+        <v>0.1867654005502067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -2595,19 +2595,19 @@
         <v>24598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15912</v>
+        <v>15827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35241</v>
+        <v>35237</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1523737284427047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09856659172901217</v>
+        <v>0.09804318318622048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2182986798104723</v>
+        <v>0.2182776888648649</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -2616,19 +2616,19 @@
         <v>36857</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>26233</v>
+        <v>26937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49291</v>
+        <v>50635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1345008257389564</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09573154621202111</v>
+        <v>0.09830005992201873</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1798781762023935</v>
+        <v>0.1847804009365808</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>99212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91541</v>
+        <v>92048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104681</v>
+        <v>104774</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8898106908563043</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8210075688418448</v>
+        <v>0.8255534033884573</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9388559648831081</v>
+        <v>0.9396940596229497</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -2741,19 +2741,19 @@
         <v>143594</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>134703</v>
+        <v>134435</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149342</v>
+        <v>149481</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9125118067266313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8560147740100735</v>
+        <v>0.8543100804600622</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9490399140034992</v>
+        <v>0.9499217142375301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>234</v>
@@ -2762,19 +2762,19 @@
         <v>242806</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230306</v>
+        <v>232693</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250739</v>
+        <v>251429</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9030974456011219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8566041069991659</v>
+        <v>0.8654819496691732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9326025704960307</v>
+        <v>0.9351688838863609</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>12286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6817</v>
+        <v>6724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19957</v>
+        <v>19450</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1101893091436957</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06114403511689222</v>
+        <v>0.06030594037705036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.178992431158156</v>
+        <v>0.1744465966115429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -2812,19 +2812,19 @@
         <v>13767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8019</v>
+        <v>7880</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22658</v>
+        <v>22926</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08748819327336871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05096008599650086</v>
+        <v>0.05007828576246964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1439852259899268</v>
+        <v>0.145689919539937</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -2833,19 +2833,19 @@
         <v>26053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18120</v>
+        <v>17430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38553</v>
+        <v>36166</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09690255439887803</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06739742950396928</v>
+        <v>0.06483111611363901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.143395893000834</v>
+        <v>0.1345180503308266</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>347435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>331929</v>
+        <v>330158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>363243</v>
+        <v>361789</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.842662811213445</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.805054918555001</v>
+        <v>0.800759441564043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8810042078351663</v>
+        <v>0.8774763211208795</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>482</v>
@@ -2958,19 +2958,19 @@
         <v>521658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>504036</v>
+        <v>502827</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539083</v>
+        <v>538496</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8575063404902218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8285388408950377</v>
+        <v>0.8265522683016795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8861498667080128</v>
+        <v>0.8851851925228479</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>813</v>
@@ -2979,19 +2979,19 @@
         <v>869093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>842963</v>
+        <v>843670</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>890697</v>
+        <v>891325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.851510084937562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8259092905314952</v>
+        <v>0.8266012417564186</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8726772168823325</v>
+        <v>0.8732927599789294</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>64871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49063</v>
+        <v>50517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80377</v>
+        <v>82148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.157337188786555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1189957921648335</v>
+        <v>0.1225236788791205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.194945081444999</v>
+        <v>0.1992405584359569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -3029,19 +3029,19 @@
         <v>86685</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69260</v>
+        <v>69847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104307</v>
+        <v>105516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1424936595097782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.113850133291987</v>
+        <v>0.1148148074771518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1714611591049622</v>
+        <v>0.1734477316983199</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>140</v>
@@ -3050,19 +3050,19 @@
         <v>151556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>129952</v>
+        <v>129324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177686</v>
+        <v>176979</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.148489915062438</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1273227831176676</v>
+        <v>0.1267072400210706</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1740907094685048</v>
+        <v>0.1733987582435813</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>40517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33178</v>
+        <v>32241</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46374</v>
+        <v>46620</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.717263715831721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.587347850674783</v>
+        <v>0.570765048788438</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8209531132701098</v>
+        <v>0.8253029823211433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -3415,19 +3415,19 @@
         <v>50720</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41955</v>
+        <v>41327</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57487</v>
+        <v>57157</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7282419829957659</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6023943915626541</v>
+        <v>0.5933736012466732</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8254122545427095</v>
+        <v>0.8206695390113006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -3436,19 +3436,19 @@
         <v>91236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>79938</v>
+        <v>80836</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100089</v>
+        <v>101233</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7233255071368258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6337577228588306</v>
+        <v>0.6408779340543795</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.793510515520607</v>
+        <v>0.802581401665395</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>15971</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10114</v>
+        <v>9868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23310</v>
+        <v>24247</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.282736284168279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1790468867298903</v>
+        <v>0.1746970176788567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4126521493252178</v>
+        <v>0.429234951211562</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3486,19 +3486,19 @@
         <v>18927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12160</v>
+        <v>12490</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27692</v>
+        <v>28320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.271758017004234</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1745877454572905</v>
+        <v>0.1793304609886996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3976056084373459</v>
+        <v>0.4066263987533268</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -3507,19 +3507,19 @@
         <v>34898</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26045</v>
+        <v>24901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46196</v>
+        <v>45298</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2766744928631742</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2064894844793929</v>
+        <v>0.1974185983346049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3662422771411695</v>
+        <v>0.3591220659456205</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>76033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67243</v>
+        <v>67689</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82646</v>
+        <v>82307</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8292174092358257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7333591406786913</v>
+        <v>0.7382209866630518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9013490629317091</v>
+        <v>0.8976453438949686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>75</v>
@@ -3632,19 +3632,19 @@
         <v>84877</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75227</v>
+        <v>76533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91043</v>
+        <v>91743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8336800823720064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7388952208553411</v>
+        <v>0.7517256608190593</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8942405644368299</v>
+        <v>0.901122788381833</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -3653,19 +3653,19 @@
         <v>160910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149692</v>
+        <v>148267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170584</v>
+        <v>170878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8315654255848777</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7735919858567113</v>
+        <v>0.7662320962567669</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8815625155730602</v>
+        <v>0.8830825759763424</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>15659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9046</v>
+        <v>9385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24449</v>
+        <v>24003</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1707825907641743</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09865093706829091</v>
+        <v>0.1023546561050314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2666408593213089</v>
+        <v>0.2617790133369481</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3703,19 +3703,19 @@
         <v>16933</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10767</v>
+        <v>10067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26583</v>
+        <v>25277</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1663199176279936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.10575943556317</v>
+        <v>0.09887721161816709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2611047791446586</v>
+        <v>0.2482743391809406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -3724,19 +3724,19 @@
         <v>32592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22918</v>
+        <v>22624</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>43810</v>
+        <v>45235</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1684345744151223</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1184374844269398</v>
+        <v>0.1169174240236576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2264080141432886</v>
+        <v>0.2337679037432331</v>
       </c>
     </row>
     <row r="9">
@@ -3831,16 +3831,16 @@
         <v>53215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67724</v>
+        <v>68593</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8095529932506075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6959968494053228</v>
+        <v>0.6959971735329363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8857637799936769</v>
+        <v>0.8971344060584775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3849,19 +3849,19 @@
         <v>64601</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56105</v>
+        <v>56639</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70189</v>
+        <v>70591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8215234303100835</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7134795099042183</v>
+        <v>0.720262558284368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8925863111263251</v>
+        <v>0.8976904346134831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -3870,19 +3870,19 @@
         <v>126498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114957</v>
+        <v>114718</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136036</v>
+        <v>136044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8156222656153052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7412094503501832</v>
+        <v>0.7396682523615552</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.87711999030194</v>
+        <v>0.8771703399981435</v>
       </c>
     </row>
     <row r="11">
@@ -3899,7 +3899,7 @@
         <v>14561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8734</v>
+        <v>7865</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>23243</v>
@@ -3908,10 +3908,10 @@
         <v>0.1904470067493926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.114236220006323</v>
+        <v>0.1028655939415225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3040031505946771</v>
+        <v>0.3040028264670636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -3920,19 +3920,19 @@
         <v>14035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8447</v>
+        <v>8045</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22531</v>
+        <v>21997</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1784765696899165</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.107413688873675</v>
+        <v>0.1023095653865166</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2865204900957818</v>
+        <v>0.2797374417156319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -3941,19 +3941,19 @@
         <v>28596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19058</v>
+        <v>19050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>40137</v>
+        <v>40376</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1843777343846948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.12288000969806</v>
+        <v>0.1228296600018565</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2587905496498169</v>
+        <v>0.2603317476384447</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>91692</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84614</v>
+        <v>83600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97419</v>
+        <v>97470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8754501978364593</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8078749580299992</v>
+        <v>0.7981867242142057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9301320660248666</v>
+        <v>0.9306211464643677</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -4066,19 +4066,19 @@
         <v>144255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>133499</v>
+        <v>133303</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>152897</v>
+        <v>152690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8658449219698635</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8012850830121043</v>
+        <v>0.8001100753650927</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9177153488305061</v>
+        <v>0.9164707320818248</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>218</v>
@@ -4087,19 +4087,19 @@
         <v>235948</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>223501</v>
+        <v>223366</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246240</v>
+        <v>246014</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8695525136684487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8236825628501681</v>
+        <v>0.8231850678584625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9074811231283375</v>
+        <v>0.9066503902547911</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>13045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7318</v>
+        <v>7267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20123</v>
+        <v>21137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1245498021635407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0698679339751333</v>
+        <v>0.06937885353563239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1921250419700008</v>
+        <v>0.2018132757857944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -4137,19 +4137,19 @@
         <v>22351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13709</v>
+        <v>13916</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33107</v>
+        <v>33303</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1341550780301365</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08228465116949378</v>
+        <v>0.08352926791817514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1987149169878953</v>
+        <v>0.1998899246349072</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -4158,19 +4158,19 @@
         <v>35396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25104</v>
+        <v>25330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47843</v>
+        <v>47978</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1304474863315513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09251887687166255</v>
+        <v>0.09334960974520895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1763174371498319</v>
+        <v>0.1768149321415375</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>270138</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>253788</v>
+        <v>254762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>283724</v>
+        <v>282812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8201542109977563</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7705127018798814</v>
+        <v>0.7734722493380783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8614023493961506</v>
+        <v>0.8586335468770213</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>314</v>
@@ -4283,19 +4283,19 @@
         <v>344454</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>328548</v>
+        <v>327246</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>360314</v>
+        <v>360173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8266234637234231</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7884532587751909</v>
+        <v>0.7853282376871331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8646848364101211</v>
+        <v>0.8643459662109214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>567</v>
@@ -4304,19 +4304,19 @@
         <v>614592</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>592314</v>
+        <v>592904</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>634732</v>
+        <v>634620</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8237674352509687</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7939073639338307</v>
+        <v>0.7946980688072423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8507614250791744</v>
+        <v>0.8506118706297926</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>59237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45651</v>
+        <v>46563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75587</v>
+        <v>74613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1798457890022437</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1385976506038494</v>
+        <v>0.1413664531229788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2294872981201187</v>
+        <v>0.2265277506619219</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>67</v>
@@ -4354,19 +4354,19 @@
         <v>72246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>56386</v>
+        <v>56527</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88152</v>
+        <v>89454</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1733765362765769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1353151635898786</v>
+        <v>0.1356540337890779</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.211546741224809</v>
+        <v>0.2146717623128665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -4375,19 +4375,19 @@
         <v>131483</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111343</v>
+        <v>111455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>153761</v>
+        <v>153171</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1762325647490313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1492385749208259</v>
+        <v>0.1493881293702074</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2060926360661695</v>
+        <v>0.2053019311927579</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>86119</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71554</v>
+        <v>72312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92105</v>
+        <v>92313</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8825457424724508</v>
+        <v>0.8825457424724505</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7332834337718771</v>
+        <v>0.7410570037346441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9438953204968447</v>
+        <v>0.946027912246311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>171</v>
@@ -4740,19 +4740,19 @@
         <v>102386</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>95538</v>
+        <v>94772</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107677</v>
+        <v>107460</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8743479992781426</v>
+        <v>0.8743479992781427</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8158700433372411</v>
+        <v>0.8093246036271908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9195272617597979</v>
+        <v>0.9176771002048785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>266</v>
@@ -4761,19 +4761,19 @@
         <v>188505</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>173815</v>
+        <v>174695</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196900</v>
+        <v>196374</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8780741857925082</v>
+        <v>0.8780741857925083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8096468929279971</v>
+        <v>0.8137456619345569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9171767548933752</v>
+        <v>0.9147300827192925</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>11461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5475</v>
+        <v>5267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26026</v>
+        <v>25268</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1174542575275492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0561046795031555</v>
+        <v>0.05397208775368902</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2667165662281233</v>
+        <v>0.2589429962653563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4811,19 +4811,19 @@
         <v>14714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9423</v>
+        <v>9640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21562</v>
+        <v>22328</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1256520007218574</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0804727382402018</v>
+        <v>0.08232289979512142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1841299566627588</v>
+        <v>0.1906753963728091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -4832,19 +4832,19 @@
         <v>26175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17780</v>
+        <v>18306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40865</v>
+        <v>39985</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1219258142074919</v>
+        <v>0.1219258142074918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08282324510662485</v>
+        <v>0.08526991728070764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.190353107072003</v>
+        <v>0.1862543380654437</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>136360</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122748</v>
+        <v>123520</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145222</v>
+        <v>144805</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8502996058659638</v>
+        <v>0.8502996058659639</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7654198128308637</v>
+        <v>0.7702356057157363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9055595039691601</v>
+        <v>0.9029602593205361</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>214</v>
@@ -4957,19 +4957,19 @@
         <v>149454</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137490</v>
+        <v>137400</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158307</v>
+        <v>157860</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8298285611623063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7634031366367803</v>
+        <v>0.7628985053687817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8789858487612503</v>
+        <v>0.8765040887399047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>340</v>
@@ -4978,19 +4978,19 @@
         <v>285814</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>268786</v>
+        <v>269768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>298568</v>
+        <v>297902</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8394707852659176</v>
+        <v>0.8394707852659175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7894567788436309</v>
+        <v>0.7923437832929546</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8769314538988296</v>
+        <v>0.8749746352737153</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>24007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>15145</v>
+        <v>15562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>37619</v>
+        <v>36847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1497003941340361</v>
+        <v>0.1497003941340362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09444049603083983</v>
+        <v>0.09703974067946423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2345801871691362</v>
+        <v>0.2297643942842645</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -5028,19 +5028,19 @@
         <v>30648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21795</v>
+        <v>22242</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>42612</v>
+        <v>42702</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1701714388376937</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1210141512387497</v>
+        <v>0.1234959112600953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2365968633632198</v>
+        <v>0.2371014946312182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>60</v>
@@ -5049,19 +5049,19 @@
         <v>54655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41901</v>
+        <v>42567</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>71683</v>
+        <v>70701</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1605292147340824</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1230685461011706</v>
+        <v>0.1250253647262843</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2105432211563694</v>
+        <v>0.2076562167070453</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>106921</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100675</v>
+        <v>100933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>110072</v>
+        <v>109831</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9521436277721362</v>
+        <v>0.9521436277721365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8965188427605846</v>
+        <v>0.8988206203872473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9802037816505872</v>
+        <v>0.9780533522727407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>173</v>
@@ -5174,19 +5174,19 @@
         <v>135574</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128134</v>
+        <v>129004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140426</v>
+        <v>140445</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9141112903021484</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8639457061088286</v>
+        <v>0.8698167267756741</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9468305697993642</v>
+        <v>0.9469568596941618</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>263</v>
@@ -5195,19 +5195,19 @@
         <v>242495</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233487</v>
+        <v>234586</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>247960</v>
+        <v>248695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.930499289966555</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8959349390088592</v>
+        <v>0.9001518429080638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9514727321885117</v>
+        <v>0.9542901433253216</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>5374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2223</v>
+        <v>2464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11620</v>
+        <v>11362</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04785637222786363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01979621834941281</v>
+        <v>0.02194664772725922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1034811572394156</v>
+        <v>0.1011793796127524</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -5245,19 +5245,19 @@
         <v>12738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7886</v>
+        <v>7867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20178</v>
+        <v>19308</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08588870969785167</v>
+        <v>0.08588870969785166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0531694302006359</v>
+        <v>0.05304314030583827</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1360542938911715</v>
+        <v>0.1301832732243258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>25</v>
@@ -5266,19 +5266,19 @@
         <v>18112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12647</v>
+        <v>11912</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27120</v>
+        <v>26021</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.069500710033445</v>
+        <v>0.06950071003344499</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04852726781148819</v>
+        <v>0.04570985667467854</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1040650609911398</v>
+        <v>0.09984815709193669</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>149713</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142400</v>
+        <v>142607</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>153927</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9504080815436978</v>
+        <v>0.950408081543698</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9039839405973705</v>
+        <v>0.9052965697478128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9771581681463354</v>
+        <v>0.9771575556844188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>270</v>
@@ -5391,19 +5391,19 @@
         <v>193041</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>182283</v>
+        <v>182735</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202239</v>
+        <v>201965</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8438748988322045</v>
+        <v>0.8438748988322043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7968502818187583</v>
+        <v>0.7988229753303489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8840839470722112</v>
+        <v>0.8828865029035082</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>419</v>
@@ -5412,19 +5412,19 @@
         <v>342754</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>329740</v>
+        <v>329209</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353929</v>
+        <v>352124</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8873190575911369</v>
+        <v>0.8873190575911371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8536303162924616</v>
+        <v>0.8522540214781382</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9162488487205167</v>
+        <v>0.9115767715136582</v>
       </c>
     </row>
     <row r="14">
@@ -5444,16 +5444,16 @@
         <v>3598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15125</v>
+        <v>14918</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0495919184563021</v>
+        <v>0.04959191845630211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02284183185366458</v>
+        <v>0.02284244431558113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09601605940262951</v>
+        <v>0.09470343025218719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -5462,19 +5462,19 @@
         <v>35714</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26516</v>
+        <v>26790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46472</v>
+        <v>46020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1561251011677956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1159160529277891</v>
+        <v>0.1171134970964917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2031497181812427</v>
+        <v>0.2011770246696512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -5483,19 +5483,19 @@
         <v>43526</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32351</v>
+        <v>34156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56540</v>
+        <v>57071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.112680942408863</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08375115127948332</v>
+        <v>0.0884232284863415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1463696837075384</v>
+        <v>0.1477459785218616</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>479112</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>462088</v>
+        <v>461529</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>492095</v>
+        <v>492125</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9078111572593979</v>
+        <v>0.9078111572593981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8755538985533571</v>
+        <v>0.8744947821600961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9324118169035517</v>
+        <v>0.9324685770339347</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>828</v>
@@ -5608,19 +5608,19 @@
         <v>580454</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>562511</v>
+        <v>559623</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>595883</v>
+        <v>594694</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8608644646372262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8342526699330572</v>
+        <v>0.8299694039945383</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8837466341195492</v>
+        <v>0.8819830335530358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1288</v>
@@ -5629,19 +5629,19 @@
         <v>1059567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1033566</v>
+        <v>1034390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1082093</v>
+        <v>1080261</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8814769029678347</v>
+        <v>0.8814769029678348</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8598464140851652</v>
+        <v>0.8605313876107855</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9002167618153917</v>
+        <v>0.8986928723865755</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>48654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35671</v>
+        <v>35641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>65678</v>
+        <v>66237</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09218884274060209</v>
+        <v>0.0921888427406021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06758818309644843</v>
+        <v>0.06753142296606517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.124446101446643</v>
+        <v>0.1255052178399039</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -5679,19 +5679,19 @@
         <v>93815</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>78386</v>
+        <v>79575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111758</v>
+        <v>114646</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1391355353627737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1162533658804508</v>
+        <v>0.1180169664469642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1657473300669426</v>
+        <v>0.1700305960054614</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -5700,19 +5700,19 @@
         <v>142469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119943</v>
+        <v>121775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>168470</v>
+        <v>167646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1185230970321652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09978323818460837</v>
+        <v>0.1013071276134246</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1401535859148347</v>
+        <v>0.1394686123892144</v>
       </c>
     </row>
     <row r="18">
